--- a/public/data/evolucaoPiv.xlsx
+++ b/public/data/evolucaoPiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awer\c2di-3110\c2di-front\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D1FD4C-237E-4A3A-8150-271FB051BF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38D8CF-8E7D-4C8A-B4EA-53AA6ABBE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{3D6D332C-6547-41E4-BA6F-553C23B0D63B}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,15 +108,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -456,7 +455,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E39"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,26 +505,26 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">B2-F2</f>
-        <v>6234.3173999999999</v>
+        <v>6234.3180999999995</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">B2/$B$39</f>
-        <v>1.487944220121867E-2</v>
+        <v>1.8253567512877815E-2</v>
       </c>
       <c r="E2" s="2">
         <v>2.4E-2</v>
       </c>
       <c r="F2" s="5">
         <f ca="1">RANDBETWEEN(0,30)/10000</f>
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="G2" s="6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G2" s="2">
         <f ca="1">B3/B2</f>
-        <v>1.1408</v>
+        <v>1.1335999999999999</v>
       </c>
       <c r="H2" s="2">
         <f ca="1">RANDBETWEEN(500,1900)/10000</f>
-        <v>0.14080000000000001</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -534,31 +533,31 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B39" ca="1" si="0">B2+(B2*H2)</f>
-        <v>7112.1122559999994</v>
+        <v>7067.225152</v>
       </c>
       <c r="C3" s="3">
-        <f ca="1">C2*G2-(C2*F3)</f>
-        <v>7106.4984042599999</v>
+        <f t="shared" ref="C3:C28" ca="1" si="1">C2*G2-(C2*F3)</f>
+        <v>7063.4824072999991</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D39" ca="1" si="1">B3/$B$39</f>
-        <v>1.697446766315026E-2</v>
-      </c>
-      <c r="E3" s="7">
+        <f t="shared" ref="D3:D39" ca="1" si="2">B3/$B$39</f>
+        <v>2.0692244132598292E-2</v>
+      </c>
+      <c r="E3" s="6">
         <f ca="1">IF(E2*G2+(E2*F3)&gt;100%,100%,E2*G2+(E2*F3))</f>
-        <v>2.7400800000000003E-2</v>
+        <v>2.72208E-2</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F39" ca="1" si="2">RANDBETWEEN(0,30)/10000</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G39" ca="1" si="3">B4/B3</f>
-        <v>1.1184999999999998</v>
+        <f t="shared" ref="F3:F39" ca="1" si="3">RANDBETWEEN(0,30)/10000</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G39" ca="1" si="4">B4/B3</f>
+        <v>1.1003000000000001</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H39" ca="1" si="4">RANDBETWEEN(500,1900)/10000</f>
-        <v>0.11849999999999999</v>
+        <f t="shared" ref="H3:H39" ca="1" si="5">RANDBETWEEN(500,1900)/10000</f>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -567,31 +566,31 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7954.8975583359988</v>
+        <v>7776.0678347455996</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">C3*G3-(C3*F4)</f>
-        <v>7933.6948185158635</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7769.8306480299998</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8985942081233564E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E39" ca="1" si="5">IF(E3*G3+(E3*F4)&gt;100%,100%,E3*G3+(E3*F4))</f>
-        <v>3.0705336479999998E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.27676762190979E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E39" ca="1" si="6">IF(E3*G3+(E3*F4)&gt;100%,100%,E3*G3+(E3*F4))</f>
+        <v>2.9959212480000001E-2</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1329</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1595</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.13289999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1595</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,31 +599,31 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9012.1034438388524</v>
+        <v>9016.3506543875228</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">C4*G4-(C4*F5)</f>
-        <v>8970.6287312958866</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8995.9099242891352</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1509173783829501E-2</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.4853627438447998E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6399120576044016E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.4788637531776002E-2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1181999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1401999999999999</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1182</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14019999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -633,31 +632,31 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10077.334070900604</v>
+        <v>10280.443016132653</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">C5*G5-(C5*F6)</f>
-        <v>10023.780544350022</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10244.542221780466</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.405155812507815E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.9001209103623306E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0100277280805384E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9714708606275483E-2</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1626999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0671999999999999</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16270000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7199999999999996E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,31 +665,31 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11716.916324236132</v>
+        <v>10971.288786816767</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">C6*G6-(C6*F7)</f>
-        <v>11630.59256560933</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10906.339649307483</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7964746632028362E-2</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.5440308726631511E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2123015914075508E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.2486795266993505E-2</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1543000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1257999999999999</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.15429999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -699,31 +698,31 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13524.836513065768</v>
+        <v>12351.476916198317</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">C7*G7-(C7*F8)</f>
-        <v>13404.257931864755</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12276.175909260503</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2279707037350336E-2</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.2533540918858694E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.616409131606621E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.7840131470634685E-2</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0967</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0756999999999999</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.6699999999999994E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.5700000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,31 +731,31 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14832.688203879228</v>
+        <v>13286.483718754529</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">C8*G8-(C8*F9)</f>
-        <v>14696.428396496518</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13191.978632091334</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.540115470786212E-2</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.7629294387987993E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8901713028692421E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1514253567579424E-2</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1213000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1604000000000001</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.12130000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16039999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -765,31 +764,31 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16631.89328300978</v>
+        <v>15417.635707242756</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">C9*G9-(C9*F10)</f>
-        <v>16461.469446915751</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15293.460828183484</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9695314773925801E-2</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.468888295051653E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.5141547798494684E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9833805518743503E-2</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0577000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1773</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.7700000000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17730000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -798,31 +797,31 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>17591.553525439445</v>
+        <v>18151.182518136899</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">C10*G10-(C10*F11)</f>
-        <v>17370.142560385502</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17995.815356523504</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.1985734436381317E-2</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.8583153704137631E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3145144223167795E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.0478239520527966E-2</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1758</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0966</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.17580000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6600000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -831,31 +830,31 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20684.148635211699</v>
+        <v>19904.586749388924</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">C11*G11-(C11*F12)</f>
-        <v>20409.917508452963</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19710.816560000196</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9366826550297151E-2</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.0694938648288334E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.827896515512581E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.7378059169587649E-2</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1609</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0582</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16089999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -864,31 +863,31 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24012.228150617262</v>
+        <v>21063.033698203359</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">C12*G12-(C12*F13)</f>
-        <v>23657.13538404783</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20854.043920480206</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7309948942239966E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.3824005166364854E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1670800927154129E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1896937825091567E-2</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0705</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0748</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.0499999999999993E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.4800000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -897,31 +896,31 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25705.090235235781</v>
+        <v>22638.548618828969</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">C13*G13-(C13*F14)</f>
-        <v>25258.72344954787</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22370.132913499114</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1350300342667884E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.10070130474505939</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6283776836505257E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.8194812343841106E-2</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.151</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.151</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -930,31 +929,31 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29586.558860756384</v>
+        <v>25355.174453088446</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">C14*G14-(C14*F15)</f>
-        <v>29060.161328704824</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25034.415743496858</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0614195694410742E-2</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.1159575524139359</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.423783005688589E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.8857565156211497E-2</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0956999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0728</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5699999999999993E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.2800000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -963,31 +962,31 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32417.992543730768</v>
+        <v>27201.031153273285</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">C15*G15-(C15*F16)</f>
-        <v>31826.688687197518</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26789.328287115986</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7371974222365844E-2</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.12711266895615653</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9642344085027184E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.10632131132550547</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0566</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0655000000000001</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.6599999999999998E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.5500000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -996,31 +995,31 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34252.850921705933</v>
+        <v>28982.698693812687</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">C16*G16-(C16*F17)</f>
-        <v>33621.713929155456</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28501.166364662702</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1751227963351755E-2</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.13433266855286621</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.4858917622596466E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11345547131544689</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1246</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0660000000000001</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1246</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1029,31 +1028,31 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38520.756146550491</v>
+        <v>30895.556807604324</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">C17*G17-(C17*F18)</f>
-        <v>37726.925199905338</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30373.692994821045</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1937430967585387E-2</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.1514063507259355</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.0459606185687824E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12097756906366103</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0546</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0628</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.4600000000000003E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.2799999999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1062,31 +1061,31 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>40623.98943215215</v>
+        <v>32835.797775121871</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">C18*G18-(C18*F19)</f>
-        <v>39677.407232740443</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32229.52563680461</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.6957214698415548E-2</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.1601122158926768</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6140469454149016E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12878062226826717</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1368</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0531000000000001</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1368</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3100000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1095,31 +1094,31 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>46181.351186470565</v>
+        <v>34579.378636980844</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">C19*G19-(C19*F20)</f>
-        <v>45025.92172771386</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33892.569159663733</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1102209616691588</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.18233579145858037</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10124552838216433</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.13581204424411458</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0861000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0808</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.6099999999999996E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.0799999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1128,31 +1127,31 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>50157.565523625679</v>
+        <v>37373.392430848893</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">C20*G20-(C20*F21)</f>
-        <v>48889.145811951712</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36536.189554117504</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11971098646887336</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.19808960384060173</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1094261670754432</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.14716593114292256</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0544</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1888000000000001</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.4399999999999997E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1888</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1161,31 +1160,31 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>52886.137088110918</v>
+        <v>44429.488921793163</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">C21*G21-(C21*F22)</f>
-        <v>51499.826198309929</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43342.881668049602</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12622326413278009</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.20906376789337106</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13008582741928687</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.17531877377056365</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1718000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1243000000000001</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.17180000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12429999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,31 +1193,31 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>61971.975439848378</v>
+        <v>49952.074394772055</v>
       </c>
       <c r="C23" s="3">
-        <f ca="1">C22*G22-(C22*F23)</f>
-        <v>60270.246599882121</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48635.047519718464</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1479084209107917</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.24529451886929229</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14625549576750424</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19749659865253996</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1777</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0611999999999999</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1777</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.1199999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1227,31 +1226,31 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>72984.395475509431</v>
+        <v>53009.141347732104</v>
       </c>
       <c r="C24" s="3">
-        <f ca="1">C23*G23-(C23*F24)</f>
-        <v>70895.891075441337</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51470.470790118045</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17419174730663939</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.28922676719878254</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15520633210847548</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.21015613062616778</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4E-3</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1285000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0783</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1285</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8299999999999995E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1260,31 +1259,31 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>82362.890294112396</v>
+        <v>57159.757115259526</v>
       </c>
       <c r="C25" s="3">
-        <f ca="1">C24*G24-(C24*F25)</f>
-        <v>79807.504583624323</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55351.344287692948</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19657538683554257</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.32720224173198276</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16735898791256912</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.22722080843301262</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0951</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1759000000000002</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5100000000000004E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1759</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1293,31 +1292,31 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>90195.601161082479</v>
+        <v>67214.158391833684</v>
       </c>
       <c r="C26" s="3">
-        <f ca="1">C25*G25-(C25*F26)</f>
-        <v>87381.236768610266</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65059.970075754303</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21526970612360263</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.3583846153690407</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19679743388639004</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.26730255904059608</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0880000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1184000000000001</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.7999999999999995E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11840000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1326,31 +1325,31 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98132.814063257742</v>
+        <v>75172.314745426789</v>
       </c>
       <c r="C27" s="3">
-        <f ca="1">C26*G26-(C26*F27)</f>
-        <v>95009.618738509962</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72756.564535716039</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2342134402624797</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.39017333075227467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22009825005853861</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.29897791228690673</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0831999999999999</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1231</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.3199999999999996E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1359,31 +1358,31 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>110212.96347444477</v>
+        <v>81426.6513322463</v>
       </c>
       <c r="C28" s="3">
-        <f ca="1">C27*G27-(C27*F28)</f>
-        <v>106467.77875837426</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>78802.635048634038</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26304511475879094</v>
-      </c>
-      <c r="E28" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.43917910109476033</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23841042446340904</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.32388277238040603</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1615</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0768</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1615</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6799999999999993E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1392,31 +1391,31 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>128012.35707556759</v>
+        <v>87680.218154562812</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29:C39" ca="1" si="6">C28*G28-(C28*F29)</f>
-        <v>123651.67824997587</v>
+        <f t="shared" ref="C29:C39" ca="1" si="7">C28*G28-(C28*F29)</f>
+        <v>84823.156366349678</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30552690079233563</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.51015044383167363</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25672034506219882</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.34888652240817336</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1E-4</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1142000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1549</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1142</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15490000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1425,31 +1424,31 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>142631.36825359741</v>
+        <v>101261.88394670459</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>137747.96957047313</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>97851.993184220992</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34041807286282039</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.56851165460601705</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29648632651233342</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.40338259720833008</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.107</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0690999999999999</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.107</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9099999999999995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1458,31 +1457,31 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>157892.92465673233</v>
+        <v>108259.08012742188</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>152280.38036015804</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>104535.28431870328</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37684280665914216</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.63019516913076989</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31697353167433567</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43157904075319237</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1673</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1556</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1673</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15559999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1491,31 +1490,31 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>184308.41095180364</v>
+        <v>125104.19299524873</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>177300.04685333199</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>120644.17163221547</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43988860821321663</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.73751740643373997</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36629461320286233</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49938010805551886</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0681999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1589</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8199999999999997E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15890000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1524,31 +1523,31 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>196878.24457871664</v>
+        <v>144983.24926219374</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>188860.00990816922</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>139790.40167024807</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.46988901129335797</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.79002864577182208</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42449882724079713</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57883148324715195</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1898</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1692</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1898</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16919999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1557,31 +1556,31 @@
       </c>
       <c r="B34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>234245.73539975705</v>
+        <v>169514.41503735693</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>224214.60376297848</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>163275.18915084974</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.55907394563683732</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.94203015721832062</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49632402880994003</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.67746436799246657</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1037000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1807999999999998</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1037</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18079999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1590,31 +1589,31 @@
       </c>
       <c r="B35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>258537.01816071186</v>
+        <v>200162.62127611105</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>247398.39379207051</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>192566.75808451217</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61704991379937735</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58605941321877719</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.80089837584069379</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1884999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1656</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1885</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1623,31 +1622,31 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>307271.24608400604</v>
+        <v>233309.55135943505</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>293958.77150373813</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>223974.3963280961</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73336382255055999</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68311085204780664</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.93552939281951442</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1232</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1836</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1232</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18360000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1656,31 +1655,31 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>345127.06360155559</v>
+        <v>276145.18498902733</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>329880.53338149487</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>264424.17230495025</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.82371424548878891</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80853000448378398</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0851999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0768</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.5199999999999998E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6799999999999993E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1689,31 +1688,31 @@
       </c>
       <c r="B38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>374531.88942040812</v>
+        <v>297353.13519618462</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>357722.45039889298</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>284626.17906904843</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89389469920443376</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87062510882813859</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1187</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1486000000000001</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1187</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14860000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,31 +1721,31 @@
       </c>
       <c r="B39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>418988.82469461055</v>
+        <v>341539.81108633766</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>399683.29383068316</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>326523.15262801241</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="E39" s="7">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E39" s="6">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4E-3</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G39" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.14899999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1096</v>
       </c>
     </row>
   </sheetData>
